--- a/data/trans_bre/P32A-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Dificultad-trans_bre.xlsx
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.838499466977644</v>
+        <v>-3.865236920860565</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.04582029604295</v>
+        <v>-5.084661022358607</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.851820349958837</v>
+        <v>-3.96522505487747</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.211888750194094</v>
+        <v>-5.18685636930871</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>-1</v>
@@ -678,10 +678,10 @@
         <v>-1</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.9227620298922202</v>
+        <v>-0.9450352908867496</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.9440187617158211</v>
+        <v>-0.9370598054632163</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1449836208735328</v>
+        <v>0.1031954235772117</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.203440643295183</v>
+        <v>-1.13553582449152</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.2710296770845051</v>
+        <v>-0.4003267743871233</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5769817014930632</v>
+        <v>0.5956393683868155</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.448107919177624</v>
+        <v>2.022711039465287</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2544971105711808</v>
+        <v>-0.173150308727587</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09906330758556431</v>
+        <v>-0.02301378640703266</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6742695383571131</v>
+        <v>0.5391955742624693</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.09404324954002084</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02134744007320222</v>
+        <v>0.02134744007320187</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-1</v>
@@ -749,7 +749,7 @@
         <v>0.08068450543435057</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.01349495483344242</v>
+        <v>0.0134949548334422</v>
       </c>
     </row>
     <row r="8">
@@ -760,24 +760,24 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.721210204335994</v>
+        <v>-2.631997322472363</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.820591665397525</v>
+        <v>-3.57263518379251</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.243050937341795</v>
+        <v>-1.309222894936202</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.565485988028952</v>
+        <v>-1.619274663478806</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.7993145241746347</v>
+        <v>-0.8247489167522081</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7909626770938158</v>
+        <v>-0.7686702470229393</v>
       </c>
     </row>
     <row r="9">
@@ -788,24 +788,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.6770180204342607</v>
+        <v>-0.6353967624172532</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.9802766272139734</v>
+        <v>-0.9375041039718023</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.730889973121639</v>
+        <v>1.773820736121719</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.182853450682218</v>
+        <v>2.491903923321901</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>3.743312219948161</v>
+        <v>3.889605468374234</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.991582049193958</v>
+        <v>2.884340214097977</v>
       </c>
     </row>
     <row r="10">
@@ -841,7 +841,7 @@
         <v>0.8199036720747299</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.9531008093116309</v>
+        <v>0.9531008093116312</v>
       </c>
     </row>
     <row r="11">
@@ -852,26 +852,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.091269158455168</v>
+        <v>-1.087497510250857</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.280694065216874</v>
+        <v>-2.249901560302577</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8002599590118309</v>
+        <v>-0.7577801050636837</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.4164988832966709</v>
+        <v>-0.5959594924446875</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.7506816713007267</v>
+        <v>-0.7399740643757566</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6657889293327012</v>
+        <v>-0.6059992839380108</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4449418861857887</v>
+        <v>-0.6488800410564599</v>
       </c>
     </row>
     <row r="12">
@@ -882,26 +882,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6609773653335651</v>
+        <v>0.8294867523235362</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.774841917983661</v>
+        <v>2.929192615997593</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.440778561050355</v>
+        <v>3.828374796756913</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.222915847453939</v>
+        <v>4.057813276257662</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>1.904653442399778</v>
+        <v>2.026578433259892</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>5.814992608181861</v>
+        <v>5.868929181173591</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>6.847669322983871</v>
+        <v>5.991576554606739</v>
       </c>
     </row>
     <row r="13">
@@ -925,7 +925,7 @@
         <v>-1.328378446079775</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.003140569015486</v>
+        <v>1.003140569015485</v>
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>-0.5642323062185943</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4812682331173626</v>
+        <v>0.4812682331173623</v>
       </c>
     </row>
     <row r="14">
@@ -953,21 +953,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.386787179550002</v>
+        <v>-2.910104288958337</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.377257317958343</v>
+        <v>-3.408448712959938</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.26324502223071</v>
+        <v>-1.257654412322365</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.5301486047711311</v>
+        <v>-0.4800034417842006</v>
       </c>
     </row>
     <row r="15">
@@ -978,24 +976,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.877447627238287</v>
+        <v>3.897561914620447</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3806885587865394</v>
+        <v>0.6531730483377722</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9966755026536409</v>
+        <v>0.9612103325157445</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.416800766221692</v>
+        <v>4.187322419618448</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
-      <c r="I15" s="6" t="n">
-        <v>1.575098777149487</v>
-      </c>
+      <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>3.083002741316834</v>
+        <v>3.214587204097885</v>
       </c>
     </row>
     <row r="16">
@@ -1042,28 +1038,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.32940344759144</v>
+        <v>-1.297126394690161</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.547378965883602</v>
+        <v>-2.65133755185034</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.418559543452007</v>
+        <v>-1.539114130868171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.8110072687835992</v>
+        <v>-0.7213980721596944</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.9293386809827949</v>
+        <v>-0.9935016965994035</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.8416593886857818</v>
+        <v>-0.8498251989164883</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.6231317704251408</v>
+        <v>-0.6706746647939813</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3684707379941389</v>
+        <v>-0.3501311533308403</v>
       </c>
     </row>
     <row r="18">
@@ -1074,28 +1070,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1320137660947849</v>
+        <v>-0.04059507754974067</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.7188937670157716</v>
+        <v>-0.6581582417914549</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5725917796478583</v>
+        <v>0.4346781831744855</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.721199754699376</v>
+        <v>1.844967091382586</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1198569177374367</v>
+        <v>0.1300811208821335</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.2521203181764928</v>
+        <v>-0.270148310437725</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3834602809202498</v>
+        <v>0.329832380682371</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.24670573586269</v>
+        <v>1.256890297316676</v>
       </c>
     </row>
     <row r="19">
